--- a/src/test/testdata/TestData1.xlsx
+++ b/src/test/testdata/TestData1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectAdactin\AdactinProject\src\test\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34C7975-3C97-45C5-A8FC-8CD813426503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC2EFB8-5975-4B51-9E4B-A17B82B120ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="71">
   <si>
     <t>Login</t>
   </si>
@@ -232,6 +232,15 @@
   </si>
   <si>
     <t>05/05/2022</t>
+  </si>
+  <si>
+    <t>TC - 104</t>
+  </si>
+  <si>
+    <t>09/05/2022</t>
+  </si>
+  <si>
+    <t>10/05/2022</t>
   </si>
 </sst>
 </file>
@@ -591,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -610,6 +619,14 @@
     <col min="9" max="9" width="12.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -863,7 +880,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -871,7 +888,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -879,7 +896,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -887,7 +904,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -895,7 +912,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -903,7 +920,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>47</v>
       </c>
@@ -938,7 +955,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>47</v>
       </c>
@@ -973,7 +990,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>59</v>
       </c>
@@ -1008,7 +1025,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>59</v>
       </c>
@@ -1043,8 +1060,123 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="5"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I20" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
